--- a/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
+++ b/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="975" windowWidth="7170" windowHeight="8700" tabRatio="839" activeTab="5"/>
+    <workbookView xWindow="5352" yWindow="972" windowWidth="7176" windowHeight="8700" tabRatio="839" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="94" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="userInfo" sheetId="237" r:id="rId4"/>
     <sheet name="emailConfig" sheetId="239" r:id="rId5"/>
     <sheet name="houseInfo" sheetId="238" r:id="rId6"/>
+    <sheet name="imageInfo" sheetId="240" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据表一览!$A$3:$F$3</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="232">
   <si>
     <t>一级分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -216,10 +217,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TimeStamp</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
     <t>CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
@@ -416,10 +413,6 @@
   </si>
   <si>
     <t>userName</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>rentWay</t>
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
@@ -436,20 +429,8 @@
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
-    <t>houseRoomNum</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>houseTingNum</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>houseToiletNum</t>
-    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>房屋户型（厅）数量</t>
@@ -472,14 +453,6 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>layerNum</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>totleLayerNum</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名(发布人)</t>
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
@@ -492,16 +465,8 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>squareMeter</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
     <t>是否在首页</t>
     <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>isHome</t>
-    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0:否
@@ -509,12 +474,378 @@
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
+    <t>卧室类型</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别要求</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋朝向</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:东
+1:南               2:西              3:北</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修情况</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:毛坯
+1:简装               2:中等装修             3:精装                  4:豪华装修</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区类型</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:公寓
+1:住宅              2:商业             3:安置房   </t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:押一付三
+1:押一付一              2:押一付二            3:半年付                 4:其他</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailConfig</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件配置表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件配置信息</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailServerHost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件服务器地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件端口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailServerPort</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录密码（自制加密算法）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱用户姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailUserName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发送邮箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailContent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件标题</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailTitle</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱类型</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailType</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋描述</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片ID</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageId</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkMan</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkCallNumber</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核是否通过</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>isValid</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已审核
+1:未审核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageInfo</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片信息表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片信息</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋信息ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:房屋信息
+1:用户头像</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图片地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigImageUrl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等图片地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小图片地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallImageUrl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>middleImageUrl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传人</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentWay</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
     <t>modifyTime</t>
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
-    <t>卧室类型</t>
+    <t>estateName</t>
     <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseTingNum</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseRoomNum</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseToiletNum</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>layerNum</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>totleLayerNum</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>squareMeter</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>isHome</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDelete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>roomType</t>
@@ -526,10 +857,6 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>性别要求</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
     <t>sexType</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
@@ -539,7 +866,11 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>房屋朝向</t>
+    <t>decorationType</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentMoney</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
@@ -547,54 +878,15 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>0:东
-1:南               2:西              3:北</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修情况</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorationType</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:毛坯
-1:简装               2:中等装修             3:精装                  4:豪华装修</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>estateName</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
     <t>estateType</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>小区类型</t>
+    <t>houseDescrible</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0:公寓
-1:住宅              2:商业             3:安置房   </t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>租金</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>rentMoney</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
+    <t>备用字段</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
@@ -602,213 +894,39 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>0:押一付三
-1:押一付一              2:押一付二            3:半年付                 4:其他</t>
+    <t>房屋标题</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>emailConfig</t>
+    <t>houseTitle</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置（区域）</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressArea</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
-    <t>邮件配置表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件配置信息</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailServerHost</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件服务器地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件端口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailServerPort</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPassword</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录密码（自制加密算法）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱用户姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailUserName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户发送邮箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailContent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件标题</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailTitle</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱类型</t>
+    <t>位置（商圈）</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>emailType</t>
+    <t>addressCircle</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋描述</t>
+    <t>地址</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>houseDescrible</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片ID</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageId</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkMan</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkCallNumber</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核是否通过</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>isValid</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:已审核
-1:未审核</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A30</t>
-  </si>
-  <si>
-    <t>备用字段</t>
+    <t>address</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -1702,7 +1820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,6 +2019,12 @@
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2318,14 +2442,14 @@
       <selection activeCell="B19" sqref="B19:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="0.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.3984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="11.09765625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2379,42 +2503,42 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="3"/>
@@ -2537,80 +2661,80 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B19" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="B19" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
     </row>
     <row r="22" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
     </row>
     <row r="23" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
     </row>
     <row r="25" spans="2:11" ht="20.25" customHeight="1">
       <c r="B25" s="9"/>
@@ -2625,30 +2749,30 @@
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B26" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
+      <c r="B26" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
     </row>
     <row r="27" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
     </row>
     <row r="28" spans="2:11" ht="14.25" customHeight="1">
       <c r="B28" s="6"/>
@@ -2927,78 +3051,78 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
     </row>
     <row r="52" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
     </row>
     <row r="53" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
     </row>
     <row r="54" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
     </row>
     <row r="55" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
     </row>
     <row r="56" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3026,13 +3150,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3066,16 +3190,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="35" customFormat="1" ht="11.25">
+    <row r="4" spans="1:7" s="35" customFormat="1" ht="10.8">
       <c r="A4" s="12">
         <f t="shared" ref="A4" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="32" t="s">
@@ -3108,19 +3232,19 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3160,7 +3284,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3169,19 +3293,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>88</v>
-      </c>
       <c r="D4" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>12</v>
@@ -3193,19 +3317,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="F5" s="38" t="s">
         <v>95</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>96</v>
       </c>
       <c r="G5" s="33"/>
     </row>
@@ -3231,19 +3355,19 @@
       <selection activeCell="O25" sqref="A1:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="13" customWidth="1"/>
     <col min="6" max="7" width="4.5" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="13"/>
   </cols>
@@ -3257,15 +3381,15 @@
       <c r="A2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -3277,17 +3401,17 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52"/>
@@ -3380,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>41</v>
@@ -3412,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>41</v>
@@ -3444,10 +3568,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>42</v>
@@ -3476,10 +3600,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>63</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>42</v>
@@ -3506,10 +3630,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>42</v>
@@ -3532,16 +3656,16 @@
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
     </row>
-    <row r="12" spans="1:16" ht="22.5">
+    <row r="12" spans="1:16" ht="21.6">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>43</v>
@@ -3550,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="62"/>
@@ -3560,7 +3684,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O12" s="58"/>
     </row>
@@ -3570,13 +3694,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="40" t="s">
@@ -3598,13 +3722,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>73</v>
-      </c>
       <c r="D14" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="59">
         <v>15</v>
@@ -3620,11 +3744,11 @@
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14" s="58"/>
     </row>
-    <row r="15" spans="1:16" ht="22.5">
+    <row r="15" spans="1:16" ht="21.6">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3633,7 +3757,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>43</v>
@@ -3664,10 +3788,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>41</v>
@@ -3692,10 +3816,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>41</v>
@@ -3720,10 +3844,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>41</v>
@@ -3748,10 +3872,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>41</v>
@@ -3776,10 +3900,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>41</v>
@@ -3804,10 +3928,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>41</v>
@@ -3832,10 +3956,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>41</v>
@@ -3860,10 +3984,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>41</v>
@@ -3888,10 +4012,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>41</v>
@@ -3916,10 +4040,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>41</v>
@@ -3958,13 +4082,13 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3990,15 +4114,15 @@
       <c r="A2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -4009,19 +4133,19 @@
       <c r="N2" s="13"/>
       <c r="O2" s="52"/>
     </row>
-    <row r="3" spans="1:15" ht="28.5">
+    <row r="3" spans="1:15" ht="26.4">
       <c r="A3" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4121,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>41</v>
@@ -4153,10 +4277,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>41</v>
@@ -4183,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>42</v>
@@ -4213,10 +4337,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>42</v>
@@ -4243,10 +4367,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>42</v>
@@ -4273,19 +4397,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E12" s="61">
         <v>50</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="62"/>
@@ -4303,13 +4427,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E13" s="61">
         <v>5000</v>
@@ -4333,13 +4457,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E14" s="59">
         <v>1000</v>
@@ -4366,7 +4490,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>43</v>
@@ -4393,13 +4517,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E16" s="38">
         <v>50</v>
@@ -4423,10 +4547,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>41</v>
@@ -4451,10 +4575,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>41</v>
@@ -4479,10 +4603,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>41</v>
@@ -4519,26 +4643,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="B19:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="13" customWidth="1"/>
     <col min="6" max="7" width="4.5" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.59765625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -4551,15 +4675,15 @@
       <c r="A2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -4571,17 +4695,17 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52"/>
@@ -4670,14 +4794,14 @@
     </row>
     <row r="7" spans="1:16" s="60" customFormat="1">
       <c r="A7" s="27">
-        <f t="shared" ref="A7:A27" si="0">ROW()-6</f>
+        <f t="shared" ref="A7:A31" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>41</v>
@@ -4706,10 +4830,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>42</v>
@@ -4730,16 +4854,16 @@
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
     </row>
-    <row r="9" spans="1:16" ht="33.75">
+    <row r="9" spans="1:16" ht="32.4">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>43</v>
@@ -4758,7 +4882,7 @@
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O9" s="58"/>
     </row>
@@ -4768,10 +4892,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>41</v>
@@ -4800,13 +4924,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="59">
         <v>8</v>
@@ -4830,13 +4954,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" s="59">
         <v>8</v>
@@ -4860,13 +4984,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E13" s="59">
         <v>8</v>
@@ -4890,13 +5014,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E14" s="59">
         <v>8</v>
@@ -4920,13 +5044,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E15" s="59">
         <v>8</v>
@@ -4950,13 +5074,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E16" s="59">
         <v>8</v>
@@ -4974,16 +5098,16 @@
       <c r="N16" s="63"/>
       <c r="O16" s="58"/>
     </row>
-    <row r="17" spans="1:15" ht="22.5">
+    <row r="17" spans="1:15" ht="21.6">
       <c r="A17" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>43</v>
@@ -5002,7 +5126,7 @@
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="63" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O17" s="58"/>
     </row>
@@ -5012,13 +5136,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="40" t="s">
@@ -5032,182 +5156,168 @@
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
       <c r="N18" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" s="58"/>
     </row>
-    <row r="19" spans="1:15" ht="22.5">
+    <row r="19" spans="1:15">
       <c r="A19" s="27">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>74</v>
+        <v>230</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="59">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="62"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="62">
-        <v>0</v>
-      </c>
+      <c r="L19" s="62"/>
       <c r="M19" s="62"/>
-      <c r="N19" s="63" t="s">
-        <v>45</v>
-      </c>
+      <c r="N19" s="58"/>
       <c r="O19" s="58"/>
     </row>
-    <row r="20" spans="1:15" ht="33.75">
+    <row r="20" spans="1:15">
       <c r="A20" s="27">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>126</v>
+      <c r="B20" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="38">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="E20" s="59">
+        <v>50</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" ht="33.75">
+      <c r="G20" s="40"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="27">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>129</v>
+      <c r="B21" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="38">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="E21" s="59">
+        <v>50</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="45">
+      <c r="G21" s="40"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="27">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>132</v>
+      <c r="B22" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="38">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="E22" s="59">
+        <v>1000</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="56.25">
+      <c r="G22" s="40"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+    </row>
+    <row r="23" spans="1:15" ht="21.6">
       <c r="A23" s="27">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>135</v>
+      <c r="B23" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>211</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="59">
         <v>4</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="62">
+        <v>0</v>
+      </c>
+      <c r="M23" s="62"/>
       <c r="N23" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="45">
+        <v>45</v>
+      </c>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" spans="1:15" ht="32.4">
       <c r="A24" s="27">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>43</v>
@@ -5226,26 +5336,25 @@
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="63" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="O24" s="38"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="32.4">
       <c r="A25" s="27">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>143</v>
+        <v>214</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E25" s="38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>32</v>
@@ -5257,19 +5366,20 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
+      <c r="N25" s="63" t="s">
+        <v>215</v>
+      </c>
       <c r="O25" s="38"/>
     </row>
-    <row r="26" spans="1:15" ht="56.25">
+    <row r="26" spans="1:15" ht="43.2">
       <c r="A26" s="27">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>43</v>
@@ -5288,26 +5398,25 @@
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="63" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="O26" s="38"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="54">
       <c r="A27" s="27">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>170</v>
+        <v>119</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="38">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F27" s="40" t="s">
         <v>32</v>
@@ -5319,26 +5428,30 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="N27" s="63" t="s">
+        <v>120</v>
+      </c>
       <c r="O27" s="38"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="38">
+    <row r="28" spans="1:15" ht="43.2">
+      <c r="A28" s="27">
         <v>22</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>170</v>
+        <v>219</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="38">
-        <v>64</v>
-      </c>
-      <c r="F28" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
@@ -5346,24 +5459,26 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="N28" s="63" t="s">
+        <v>122</v>
+      </c>
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="38">
+      <c r="A29" s="27">
         <v>23</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E29" s="38">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>32</v>
@@ -5378,21 +5493,21 @@
       <c r="N29" s="38"/>
       <c r="O29" s="38"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="38">
+    <row r="30" spans="1:15" ht="54">
+      <c r="A30" s="27">
         <v>24</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>177</v>
+        <v>222</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E30" s="38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>32</v>
@@ -5404,24 +5519,26 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="N30" s="63" t="s">
+        <v>126</v>
+      </c>
       <c r="O30" s="38"/>
     </row>
-    <row r="31" spans="1:15" ht="22.5">
-      <c r="A31" s="38">
+    <row r="31" spans="1:15">
+      <c r="A31" s="27">
         <v>25</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>43</v>
+        <v>220</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="E31" s="38">
-        <v>4</v>
+        <v>5000</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>32</v>
@@ -5433,26 +5550,24 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="63" t="s">
-        <v>180</v>
-      </c>
+      <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="38">
+      <c r="A32" s="27">
         <v>26</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E32" s="38">
-        <v>500</v>
+        <v>64</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -5462,28 +5577,28 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="38" t="s">
-        <v>202</v>
-      </c>
+      <c r="N32" s="38"/>
       <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="38">
+      <c r="A33" s="27">
         <v>27</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E33" s="38">
-        <v>500</v>
-      </c>
-      <c r="F33" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
@@ -5491,28 +5606,28 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="38" t="s">
-        <v>202</v>
-      </c>
+      <c r="N33" s="38"/>
       <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="38">
+      <c r="A34" s="27">
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E34" s="38">
-        <v>500</v>
-      </c>
-      <c r="F34" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
@@ -5520,28 +5635,28 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="38" t="s">
-        <v>202</v>
-      </c>
+      <c r="N34" s="38"/>
       <c r="O34" s="38"/>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="38">
+    <row r="35" spans="1:15" ht="21.6">
+      <c r="A35" s="27">
         <v>29</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>177</v>
+        <v>158</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E35" s="38">
-        <v>500</v>
-      </c>
-      <c r="F35" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
@@ -5549,23 +5664,23 @@
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="38" t="s">
-        <v>202</v>
+      <c r="N35" s="63" t="s">
+        <v>159</v>
       </c>
       <c r="O35" s="38"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="38">
+      <c r="A36" s="27">
         <v>30</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E36" s="38">
         <v>500</v>
@@ -5579,22 +5694,22 @@
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="38">
+      <c r="A37" s="27">
         <v>31</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E37" s="38">
         <v>500</v>
@@ -5608,22 +5723,22 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="N37" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O37" s="38"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="38">
+      <c r="A38" s="27">
         <v>32</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E38" s="38">
         <v>500</v>
@@ -5637,22 +5752,22 @@
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O38" s="38"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="38">
+      <c r="A39" s="27">
         <v>33</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E39" s="38">
         <v>500</v>
@@ -5666,22 +5781,22 @@
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O39" s="38"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="38">
+      <c r="A40" s="27">
         <v>34</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E40" s="38">
         <v>500</v>
@@ -5695,22 +5810,22 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O40" s="38"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="38">
+      <c r="A41" s="27">
         <v>35</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E41" s="38">
         <v>500</v>
@@ -5724,22 +5839,22 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O41" s="38"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="38">
+      <c r="A42" s="27">
         <v>36</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E42" s="38">
         <v>500</v>
@@ -5753,22 +5868,22 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O42" s="38"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="38">
+      <c r="A43" s="27">
         <v>37</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E43" s="38">
         <v>500</v>
@@ -5782,22 +5897,22 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="38">
+      <c r="A44" s="27">
         <v>38</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E44" s="38">
         <v>500</v>
@@ -5811,22 +5926,22 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O44" s="38"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="38">
+      <c r="A45" s="27">
         <v>39</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E45" s="38">
         <v>500</v>
@@ -5840,22 +5955,22 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O45" s="38"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="38">
+      <c r="A46" s="27">
         <v>40</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E46" s="38">
         <v>500</v>
@@ -5869,22 +5984,22 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O46" s="38"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="38">
+      <c r="A47" s="27">
         <v>41</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E47" s="38">
         <v>500</v>
@@ -5898,22 +6013,22 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="38">
+      <c r="A48" s="27">
         <v>42</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E48" s="38">
         <v>500</v>
@@ -5927,22 +6042,22 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O48" s="38"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="38">
+      <c r="A49" s="27">
         <v>43</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E49" s="38">
         <v>500</v>
@@ -5956,22 +6071,22 @@
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
       <c r="N49" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O49" s="38"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="38">
+      <c r="A50" s="27">
         <v>44</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E50" s="38">
         <v>500</v>
@@ -5985,22 +6100,22 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O50" s="38"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="38">
+      <c r="A51" s="27">
         <v>45</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E51" s="38">
         <v>500</v>
@@ -6014,22 +6129,22 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O51" s="38"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="38">
+      <c r="A52" s="27">
         <v>46</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E52" s="38">
         <v>500</v>
@@ -6043,22 +6158,22 @@
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
       <c r="N52" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O52" s="38"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="38">
+      <c r="A53" s="27">
         <v>47</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E53" s="38">
         <v>500</v>
@@ -6072,22 +6187,22 @@
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O53" s="38"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="38">
+      <c r="A54" s="27">
         <v>48</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E54" s="38">
         <v>500</v>
@@ -6101,22 +6216,22 @@
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O54" s="38"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="38">
+      <c r="A55" s="27">
         <v>49</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E55" s="38">
         <v>500</v>
@@ -6130,22 +6245,22 @@
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
       <c r="N55" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O55" s="38"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="38">
+      <c r="A56" s="27">
         <v>50</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E56" s="38">
         <v>500</v>
@@ -6159,22 +6274,22 @@
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O56" s="38"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="38">
+      <c r="A57" s="27">
         <v>51</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E57" s="38">
         <v>500</v>
@@ -6188,22 +6303,22 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O57" s="38"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="38">
+      <c r="A58" s="27">
         <v>52</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E58" s="38">
         <v>500</v>
@@ -6217,22 +6332,22 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O58" s="38"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="38">
+      <c r="A59" s="27">
         <v>53</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E59" s="38">
         <v>500</v>
@@ -6246,22 +6361,22 @@
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O59" s="38"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="38">
+      <c r="A60" s="27">
         <v>54</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E60" s="38">
         <v>500</v>
@@ -6275,22 +6390,22 @@
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O60" s="38"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="38">
+      <c r="A61" s="27">
         <v>55</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E61" s="38">
         <v>500</v>
@@ -6304,9 +6419,125 @@
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" s="38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="O61" s="38"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="27">
+        <v>56</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="38">
+        <v>500</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O62" s="38"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="27">
+        <v>57</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="38">
+        <v>500</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O63" s="38"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="27">
+        <v>58</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="38">
+        <v>500</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O64" s="38"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="27">
+        <v>59</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="38">
+        <v>500</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O65" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6322,4 +6553,548 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="27">
+        <f t="shared" ref="A7:A18" si="0">ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="59">
+        <v>32</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="61">
+        <v>32</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="1:15" ht="21.6">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="61">
+        <v>4</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="58"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="58"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="59">
+        <v>200</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="59">
+        <v>4</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="58"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="38">
+        <v>50</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="38">
+        <v>50</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="38">
+        <v>50</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="数据表一览!R1C1" display="返回一览表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
+++ b/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="233">
   <si>
     <t>一级分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -928,6 +928,10 @@
   <si>
     <t>address</t>
     <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4645,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="B19:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="7" spans="1:16" s="60" customFormat="1">
       <c r="A7" s="27">
-        <f t="shared" ref="A7:A31" si="0">ROW()-6</f>
+        <f t="shared" ref="A7:A18" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="58" t="s">
@@ -5203,7 +5207,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="59">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>32</v>
@@ -5232,7 +5236,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="59">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>32</v>
@@ -5535,7 +5539,7 @@
         <v>220</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="E31" s="38">
         <v>5000</v>

--- a/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
+++ b/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="235">
   <si>
     <t>一级分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -898,11 +898,31 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
+    <t>位置（区域）</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置（商圈）</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>houseTitle</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>位置（区域）</t>
+    <t>address</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
@@ -910,28 +930,16 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置（商圈）</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
     <t>addressCircle</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>地址</t>
+    <t>位置（附属）</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>address</t>
+    <t>addressAttach</t>
     <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4647,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5146,7 +5154,7 @@
         <v>202</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="40" t="s">
@@ -5169,10 +5177,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>230</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>231</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>42</v>
@@ -5198,10 +5206,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>42</v>
@@ -5227,10 +5235,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>42</v>
@@ -5256,16 +5264,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="59">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>32</v>
@@ -5280,79 +5288,77 @@
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
     </row>
-    <row r="23" spans="1:15" ht="21.6">
+    <row r="23" spans="1:15">
       <c r="A23" s="27">
         <v>17</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="59">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="62"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="62">
-        <v>0</v>
-      </c>
+      <c r="L23" s="62"/>
       <c r="M23" s="62"/>
-      <c r="N23" s="63" t="s">
-        <v>45</v>
-      </c>
+      <c r="N23" s="58"/>
       <c r="O23" s="58"/>
     </row>
-    <row r="24" spans="1:15" ht="32.4">
+    <row r="24" spans="1:15" ht="21.6">
       <c r="A24" s="27">
         <v>18</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>212</v>
+      <c r="B24" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>211</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="59">
         <v>4</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="62">
+        <v>0</v>
+      </c>
+      <c r="M24" s="62"/>
       <c r="N24" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="O24" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="1:15" ht="32.4">
       <c r="A25" s="27">
         <v>19</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>43</v>
@@ -5371,19 +5377,19 @@
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O25" s="38"/>
     </row>
-    <row r="26" spans="1:15" ht="43.2">
+    <row r="26" spans="1:15" ht="32.4">
       <c r="A26" s="27">
         <v>20</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>43</v>
@@ -5402,19 +5408,19 @@
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="63" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="O26" s="38"/>
     </row>
-    <row r="27" spans="1:15" ht="54">
+    <row r="27" spans="1:15" ht="43.2">
       <c r="A27" s="27">
         <v>21</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>216</v>
+        <v>117</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>43</v>
@@ -5433,19 +5439,19 @@
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O27" s="38"/>
     </row>
-    <row r="28" spans="1:15" ht="43.2">
+    <row r="28" spans="1:15" ht="54">
       <c r="A28" s="27">
         <v>22</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>219</v>
+        <v>119</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>43</v>
@@ -5464,25 +5470,25 @@
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O28" s="38"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="43.2">
       <c r="A29" s="27">
         <v>23</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>124</v>
+        <v>219</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E29" s="38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>32</v>
@@ -5494,24 +5500,26 @@
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="N29" s="63" t="s">
+        <v>122</v>
+      </c>
       <c r="O29" s="38"/>
     </row>
-    <row r="30" spans="1:15" ht="54">
+    <row r="30" spans="1:15">
       <c r="A30" s="27">
         <v>24</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>43</v>
+        <v>217</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="E30" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>32</v>
@@ -5523,26 +5531,24 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="63" t="s">
-        <v>126</v>
-      </c>
+      <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="54">
       <c r="A31" s="27">
         <v>25</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E31" s="38">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>32</v>
@@ -5554,7 +5560,9 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="N31" s="63" t="s">
+        <v>126</v>
+      </c>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15">
@@ -5562,18 +5570,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="E32" s="38">
-        <v>64</v>
-      </c>
-      <c r="F32" s="38"/>
+        <v>5000</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
@@ -5589,20 +5599,18 @@
         <v>27</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>149</v>
       </c>
       <c r="E33" s="38">
-        <v>50</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>32</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
@@ -5618,16 +5626,16 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E34" s="38">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>32</v>
@@ -5642,21 +5650,21 @@
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
     </row>
-    <row r="35" spans="1:15" ht="21.6">
+    <row r="35" spans="1:15">
       <c r="A35" s="27">
         <v>29</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>43</v>
+        <v>155</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="E35" s="38">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F35" s="40" t="s">
         <v>32</v>
@@ -5668,28 +5676,28 @@
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="63" t="s">
-        <v>159</v>
-      </c>
+      <c r="N35" s="38"/>
       <c r="O35" s="38"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="21.6">
       <c r="A36" s="27">
         <v>30</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E36" s="38">
-        <v>500</v>
-      </c>
-      <c r="F36" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
@@ -5697,8 +5705,8 @@
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="38" t="s">
-        <v>221</v>
+      <c r="N36" s="63" t="s">
+        <v>159</v>
       </c>
       <c r="O36" s="38"/>
     </row>
@@ -5707,10 +5715,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>156</v>
@@ -5727,7 +5735,7 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="N37" s="38" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="O37" s="38"/>
     </row>
@@ -5736,10 +5744,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>156</v>
@@ -5765,10 +5773,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>156</v>
@@ -5794,10 +5802,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>156</v>
@@ -5823,10 +5831,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>156</v>
@@ -5852,10 +5860,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>156</v>
@@ -5881,10 +5889,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>156</v>
@@ -5910,10 +5918,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>156</v>
@@ -5939,10 +5947,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>156</v>
@@ -5968,10 +5976,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>156</v>
@@ -5997,10 +6005,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>156</v>
@@ -6026,10 +6034,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>156</v>
@@ -6055,10 +6063,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>156</v>
@@ -6084,10 +6092,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>156</v>
@@ -6113,10 +6121,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>156</v>
@@ -6142,10 +6150,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>156</v>
@@ -6171,10 +6179,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>156</v>
@@ -6200,10 +6208,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>156</v>
@@ -6229,10 +6237,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>156</v>
@@ -6258,10 +6266,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>156</v>
@@ -6287,10 +6295,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>156</v>
@@ -6316,10 +6324,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>156</v>
@@ -6345,10 +6353,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>156</v>
@@ -6374,10 +6382,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>156</v>
@@ -6403,10 +6411,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>156</v>
@@ -6432,10 +6440,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>156</v>
@@ -6461,10 +6469,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>156</v>
@@ -6490,10 +6498,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>156</v>
@@ -6519,10 +6527,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>156</v>
@@ -6542,6 +6550,35 @@
         <v>181</v>
       </c>
       <c r="O65" s="38"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="27">
+        <v>60</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="38">
+        <v>500</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O66" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
+++ b/trunk/Ulezu/WebContent/数据库设计/数据库设计_优乐租(MySQL)_mysql设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="972" windowWidth="7176" windowHeight="8700" tabRatio="839" activeTab="5"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15105" windowHeight="7770" tabRatio="839" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="94" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">数据表一览!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <oleSize ref="C1:N24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="237">
   <si>
     <t>一级分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -308,10 +309,6 @@
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
-    <t>registeTime</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
     <t>isDelete</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -804,16 +801,8 @@
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
-    <t>rentWay</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
     <t>modifyTime</t>
     <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>estateName</t>
-    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>houseTingNum</t>
@@ -939,6 +928,26 @@
   </si>
   <si>
     <t>addressAttach</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentWay</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>estateName</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeTime</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDelete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -2448,20 +2457,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:K56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="11.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3162,13 +3171,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3202,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="35" customFormat="1" ht="10.8">
+    <row r="4" spans="1:7" s="35" customFormat="1" ht="11.25">
       <c r="A4" s="12">
         <f t="shared" ref="A4" si="0">ROW()-3</f>
         <v>1</v>
@@ -3244,19 +3253,19 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.59765625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3305,19 +3314,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>87</v>
-      </c>
       <c r="D4" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>90</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>12</v>
@@ -3329,19 +3338,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="F5" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="G5" s="33"/>
     </row>
@@ -3363,23 +3372,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="A1:O25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="13" customWidth="1"/>
     <col min="6" max="7" width="4.5" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="13"/>
   </cols>
@@ -3668,7 +3677,7 @@
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
     </row>
-    <row r="12" spans="1:16" ht="21.6">
+    <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3696,7 +3705,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
       <c r="N12" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O12" s="58"/>
     </row>
@@ -3737,7 +3746,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>70</v>
@@ -3760,7 +3769,7 @@
       </c>
       <c r="O14" s="58"/>
     </row>
-    <row r="15" spans="1:16" ht="21.6">
+    <row r="15" spans="1:16" ht="22.5">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3769,7 +3778,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>43</v>
@@ -3800,10 +3809,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>41</v>
@@ -3828,10 +3837,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>41</v>
@@ -3856,10 +3865,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>41</v>
@@ -3884,10 +3893,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>41</v>
@@ -3912,10 +3921,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>41</v>
@@ -3940,10 +3949,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>41</v>
@@ -3968,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>41</v>
@@ -3996,10 +4005,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>41</v>
@@ -4024,10 +4033,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>41</v>
@@ -4052,10 +4061,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>41</v>
@@ -4097,10 +4106,10 @@
       <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4145,16 +4154,16 @@
       <c r="N2" s="13"/>
       <c r="O2" s="52"/>
     </row>
-    <row r="3" spans="1:15" ht="26.4">
+    <row r="3" spans="1:15" ht="28.5">
       <c r="A3" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="85"/>
       <c r="F3" s="86"/>
@@ -4289,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>41</v>
@@ -4319,10 +4328,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>133</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>42</v>
@@ -4349,10 +4358,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>42</v>
@@ -4379,7 +4388,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>63</v>
@@ -4409,13 +4418,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="D12" s="58" t="s">
         <v>137</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>138</v>
       </c>
       <c r="E12" s="61">
         <v>50</v>
@@ -4439,13 +4448,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>141</v>
-      </c>
       <c r="D13" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="61">
         <v>5000</v>
@@ -4469,13 +4478,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="D14" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="59">
         <v>1000</v>
@@ -4502,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>43</v>
@@ -4529,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="58" t="s">
         <v>145</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>146</v>
       </c>
       <c r="E16" s="38">
         <v>50</v>
@@ -4559,10 +4568,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>41</v>
@@ -4587,10 +4596,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>41</v>
@@ -4615,10 +4624,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>41</v>
@@ -4657,24 +4666,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="13" customWidth="1"/>
     <col min="6" max="7" width="4.5" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -4707,14 +4716,14 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>97</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="85"/>
       <c r="F3" s="86"/>
@@ -4813,7 +4822,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>41</v>
@@ -4842,10 +4851,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>42</v>
@@ -4866,16 +4875,16 @@
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
     </row>
-    <row r="9" spans="1:16" ht="32.4">
+    <row r="9" spans="1:16" ht="33.75">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>43</v>
@@ -4894,7 +4903,7 @@
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9" s="58"/>
     </row>
@@ -4904,10 +4913,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>41</v>
@@ -4936,13 +4945,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="59">
         <v>8</v>
@@ -4966,13 +4975,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="59">
         <v>8</v>
@@ -4996,13 +5005,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="59">
         <v>8</v>
@@ -5026,13 +5035,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="59">
         <v>8</v>
@@ -5056,13 +5065,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="59">
         <v>8</v>
@@ -5086,13 +5095,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="59">
         <v>8</v>
@@ -5110,16 +5119,16 @@
       <c r="N16" s="63"/>
       <c r="O16" s="58"/>
     </row>
-    <row r="17" spans="1:15" ht="21.6">
+    <row r="17" spans="1:15" ht="22.5">
       <c r="A17" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>43</v>
@@ -5138,7 +5147,7 @@
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
       <c r="N17" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O17" s="58"/>
     </row>
@@ -5151,10 +5160,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="40" t="s">
@@ -5177,10 +5186,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>42</v>
@@ -5206,10 +5215,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>42</v>
@@ -5235,10 +5244,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>42</v>
@@ -5264,10 +5273,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>42</v>
@@ -5293,10 +5302,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>42</v>
@@ -5317,7 +5326,7 @@
       <c r="N23" s="58"/>
       <c r="O23" s="58"/>
     </row>
-    <row r="24" spans="1:15" ht="21.6">
+    <row r="24" spans="1:15" ht="22.5">
       <c r="A24" s="27">
         <v>18</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>43</v>
@@ -5350,15 +5359,15 @@
       </c>
       <c r="O24" s="58"/>
     </row>
-    <row r="25" spans="1:15" ht="32.4">
+    <row r="25" spans="1:15" ht="33.75">
       <c r="A25" s="27">
         <v>19</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>43</v>
@@ -5377,19 +5386,19 @@
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O25" s="38"/>
     </row>
-    <row r="26" spans="1:15" ht="32.4">
+    <row r="26" spans="1:15" ht="33.75">
       <c r="A26" s="27">
         <v>20</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>43</v>
@@ -5408,19 +5417,19 @@
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O26" s="38"/>
     </row>
-    <row r="27" spans="1:15" ht="43.2">
+    <row r="27" spans="1:15" ht="45">
       <c r="A27" s="27">
         <v>21</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>43</v>
@@ -5439,19 +5448,19 @@
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O27" s="38"/>
     </row>
-    <row r="28" spans="1:15" ht="54">
+    <row r="28" spans="1:15" ht="56.25">
       <c r="A28" s="27">
         <v>22</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>43</v>
@@ -5470,19 +5479,19 @@
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O28" s="38"/>
     </row>
-    <row r="29" spans="1:15" ht="43.2">
+    <row r="29" spans="1:15" ht="45">
       <c r="A29" s="27">
         <v>23</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>43</v>
@@ -5501,7 +5510,7 @@
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O29" s="38"/>
     </row>
@@ -5510,13 +5519,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="E30" s="38">
         <v>8</v>
@@ -5534,15 +5543,15 @@
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
-    <row r="31" spans="1:15" ht="54">
+    <row r="31" spans="1:15" ht="56.25">
       <c r="A31" s="27">
         <v>25</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>43</v>
@@ -5561,7 +5570,7 @@
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
       <c r="N31" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O31" s="38"/>
     </row>
@@ -5570,13 +5579,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E32" s="38">
         <v>5000</v>
@@ -5599,13 +5608,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>151</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="38">
         <v>64</v>
@@ -5626,13 +5635,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>153</v>
-      </c>
       <c r="D34" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="38">
         <v>50</v>
@@ -5655,13 +5664,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="D35" s="38" t="s">
         <v>155</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>156</v>
       </c>
       <c r="E35" s="38">
         <v>15</v>
@@ -5679,15 +5688,15 @@
       <c r="N35" s="38"/>
       <c r="O35" s="38"/>
     </row>
-    <row r="36" spans="1:15" ht="21.6">
+    <row r="36" spans="1:15" ht="22.5">
       <c r="A36" s="27">
         <v>30</v>
       </c>
       <c r="B36" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>157</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>158</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>43</v>
@@ -5706,7 +5715,7 @@
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O36" s="38"/>
     </row>
@@ -5715,13 +5724,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" s="38">
         <v>500</v>
@@ -5735,7 +5744,7 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
       <c r="N37" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O37" s="38"/>
     </row>
@@ -5744,13 +5753,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" s="38">
         <v>500</v>
@@ -5764,7 +5773,7 @@
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O38" s="38"/>
     </row>
@@ -5773,13 +5782,13 @@
         <v>33</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="38">
         <v>500</v>
@@ -5793,7 +5802,7 @@
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O39" s="38"/>
     </row>
@@ -5802,13 +5811,13 @@
         <v>34</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E40" s="38">
         <v>500</v>
@@ -5822,7 +5831,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O40" s="38"/>
     </row>
@@ -5831,13 +5840,13 @@
         <v>35</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41" s="38">
         <v>500</v>
@@ -5851,7 +5860,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O41" s="38"/>
     </row>
@@ -5860,13 +5869,13 @@
         <v>36</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="38">
         <v>500</v>
@@ -5880,7 +5889,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O42" s="38"/>
     </row>
@@ -5889,13 +5898,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="38">
         <v>500</v>
@@ -5909,7 +5918,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
       <c r="N43" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O43" s="38"/>
     </row>
@@ -5918,13 +5927,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="38">
         <v>500</v>
@@ -5938,7 +5947,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
       <c r="N44" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O44" s="38"/>
     </row>
@@ -5947,13 +5956,13 @@
         <v>39</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="38">
         <v>500</v>
@@ -5967,7 +5976,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
       <c r="N45" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O45" s="38"/>
     </row>
@@ -5976,13 +5985,13 @@
         <v>40</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="38">
         <v>500</v>
@@ -5996,7 +6005,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O46" s="38"/>
     </row>
@@ -6005,13 +6014,13 @@
         <v>41</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47" s="38">
         <v>500</v>
@@ -6025,7 +6034,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O47" s="38"/>
     </row>
@@ -6034,13 +6043,13 @@
         <v>42</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="38">
         <v>500</v>
@@ -6054,7 +6063,7 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O48" s="38"/>
     </row>
@@ -6063,13 +6072,13 @@
         <v>43</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49" s="38">
         <v>500</v>
@@ -6083,7 +6092,7 @@
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
       <c r="N49" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O49" s="38"/>
     </row>
@@ -6092,13 +6101,13 @@
         <v>44</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50" s="38">
         <v>500</v>
@@ -6112,7 +6121,7 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O50" s="38"/>
     </row>
@@ -6121,13 +6130,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E51" s="38">
         <v>500</v>
@@ -6141,7 +6150,7 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O51" s="38"/>
     </row>
@@ -6150,13 +6159,13 @@
         <v>46</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="38">
         <v>500</v>
@@ -6170,7 +6179,7 @@
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
       <c r="N52" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O52" s="38"/>
     </row>
@@ -6179,13 +6188,13 @@
         <v>47</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53" s="38">
         <v>500</v>
@@ -6199,7 +6208,7 @@
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O53" s="38"/>
     </row>
@@ -6208,13 +6217,13 @@
         <v>48</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="38">
         <v>500</v>
@@ -6228,7 +6237,7 @@
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O54" s="38"/>
     </row>
@@ -6237,13 +6246,13 @@
         <v>49</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" s="38">
         <v>500</v>
@@ -6257,7 +6266,7 @@
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
       <c r="N55" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O55" s="38"/>
     </row>
@@ -6266,13 +6275,13 @@
         <v>50</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" s="38">
         <v>500</v>
@@ -6286,7 +6295,7 @@
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
       <c r="N56" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O56" s="38"/>
     </row>
@@ -6295,13 +6304,13 @@
         <v>51</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E57" s="38">
         <v>500</v>
@@ -6315,7 +6324,7 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O57" s="38"/>
     </row>
@@ -6324,13 +6333,13 @@
         <v>52</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E58" s="38">
         <v>500</v>
@@ -6344,7 +6353,7 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="38"/>
     </row>
@@ -6353,13 +6362,13 @@
         <v>53</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" s="38">
         <v>500</v>
@@ -6373,7 +6382,7 @@
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="38"/>
     </row>
@@ -6382,13 +6391,13 @@
         <v>54</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60" s="38">
         <v>500</v>
@@ -6402,7 +6411,7 @@
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="38"/>
     </row>
@@ -6411,13 +6420,13 @@
         <v>55</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="38">
         <v>500</v>
@@ -6431,7 +6440,7 @@
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="38"/>
     </row>
@@ -6440,13 +6449,13 @@
         <v>56</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="38">
         <v>500</v>
@@ -6460,7 +6469,7 @@
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="38"/>
     </row>
@@ -6469,13 +6478,13 @@
         <v>57</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" s="38">
         <v>500</v>
@@ -6489,7 +6498,7 @@
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="38"/>
     </row>
@@ -6498,13 +6507,13 @@
         <v>58</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="38">
         <v>500</v>
@@ -6518,7 +6527,7 @@
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O64" s="38"/>
     </row>
@@ -6527,13 +6536,13 @@
         <v>59</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" s="38">
         <v>500</v>
@@ -6547,7 +6556,7 @@
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O65" s="38"/>
     </row>
@@ -6556,13 +6565,13 @@
         <v>60</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" s="38">
         <v>500</v>
@@ -6576,7 +6585,7 @@
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
       <c r="N66" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O66" s="38"/>
     </row>
@@ -6604,10 +6613,10 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6654,14 +6663,14 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>183</v>
       </c>
       <c r="C3" s="83"/>
       <c r="D3" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="85"/>
       <c r="F3" s="86"/>
@@ -6796,10 +6805,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>185</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>186</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>41</v>
@@ -6822,16 +6831,16 @@
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
     </row>
-    <row r="9" spans="1:15" ht="21.6">
+    <row r="9" spans="1:15" ht="22.5">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>43</v>
@@ -6850,7 +6859,7 @@
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O9" s="58"/>
     </row>
@@ -6860,10 +6869,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>190</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>191</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>42</v>
@@ -6892,10 +6901,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>42</v>
@@ -6924,10 +6933,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>194</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>42</v>
@@ -6956,13 +6965,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="D13" s="58" t="s">
         <v>197</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>198</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="40" t="s">
@@ -6986,10 +6995,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>199</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>200</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>42</v>
@@ -7019,7 +7028,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>43</v>
@@ -7046,10 +7055,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>41</v>
@@ -7074,10 +7083,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>41</v>
@@ -7102,10 +7111,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>41</v>
